--- a/chooseschool/excel/2022常州大学.xlsx
+++ b/chooseschool/excel/2022常州大学.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3EB5A6-744B-479E-A7AA-5E225376D017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6509941-44A4-47D0-BEFC-BE3A7624265A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <r>
       <rPr>
@@ -958,6 +958,10 @@
   </si>
   <si>
     <t>专业</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>学费</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -990,7 +994,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1013,13 +1017,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,6 +1059,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1367,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -1379,9 +1426,10 @@
     <col min="4" max="4" width="10.54296875" customWidth="1"/>
     <col min="5" max="5" width="10.1796875" customWidth="1"/>
     <col min="6" max="7" width="8.36328125" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1397,14 +1445,17 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1420,14 +1471,17 @@
       <c r="E2" s="1">
         <v>227</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>169</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="5">
         <v>80.08</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1443,14 +1497,17 @@
       <c r="E3" s="1">
         <v>208</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>159</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="5">
         <v>74.42</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,14 +1523,17 @@
       <c r="E4" s="1">
         <v>191</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>164</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="5">
         <v>72.83</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1489,14 +1549,17 @@
       <c r="E5" s="1">
         <v>217</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>176</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="5">
         <v>80.17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1512,14 +1575,17 @@
       <c r="E6" s="1">
         <v>221</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>157</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="5">
         <v>76.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1535,14 +1601,17 @@
       <c r="E7" s="1">
         <v>213</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>161</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="5">
         <v>75.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1558,14 +1627,17 @@
       <c r="E8" s="1">
         <v>195</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>168</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="5">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1581,14 +1653,17 @@
       <c r="E9" s="1">
         <v>217</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>153</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="5">
         <v>74.42</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1604,14 +1679,17 @@
       <c r="E10" s="1">
         <v>203</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>162</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="5">
         <v>74.33</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1627,14 +1705,17 @@
       <c r="E11" s="1">
         <v>196</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>165</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="5">
         <v>73.92</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -1650,14 +1731,17 @@
       <c r="E12" s="1">
         <v>213</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>152</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="5">
         <v>73.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1673,14 +1757,17 @@
       <c r="E13" s="1">
         <v>190</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>167</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="5">
         <v>73.42</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -1696,14 +1783,17 @@
       <c r="E14" s="1">
         <v>205</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>156</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="5">
         <v>73.17</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -1719,14 +1809,17 @@
       <c r="E15" s="1">
         <v>209</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>151</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="5">
         <v>72.58</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -1742,14 +1835,17 @@
       <c r="E16" s="1">
         <v>190</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>157</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="5">
         <v>70.92</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -1765,14 +1861,17 @@
       <c r="E17" s="1">
         <v>190</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
         <v>153</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="5">
         <v>69.92</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -1788,14 +1887,17 @@
       <c r="E18" s="1">
         <v>216</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>179</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="5">
         <v>80.75</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -1811,14 +1913,17 @@
       <c r="E19" s="1">
         <v>209</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>167</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="5">
         <v>76.58</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
@@ -1834,14 +1939,17 @@
       <c r="E20" s="1">
         <v>209</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>159</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="5">
         <v>74.58</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -1857,14 +1965,17 @@
       <c r="E21" s="1">
         <v>198</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>163</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="5">
         <v>73.75</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -1880,14 +1991,17 @@
       <c r="E22" s="1">
         <v>191</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>160</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="5">
         <v>71.83</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -1903,11 +2017,14 @@
       <c r="E23" s="1">
         <v>191</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>155</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="5">
         <v>70.58</v>
+      </c>
+      <c r="H23" s="7">
+        <v>18000</v>
       </c>
     </row>
   </sheetData>
